--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ltb</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H2">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I2">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J2">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.22390230296509</v>
+        <v>3.224616</v>
       </c>
       <c r="N2">
-        <v>3.22390230296509</v>
+        <v>9.673848</v>
       </c>
       <c r="O2">
-        <v>0.2950406946068111</v>
+        <v>0.2727666450043952</v>
       </c>
       <c r="P2">
-        <v>0.2950406946068111</v>
+        <v>0.2727666450043952</v>
       </c>
       <c r="Q2">
-        <v>1.566773842243963</v>
+        <v>2.97529406524</v>
       </c>
       <c r="R2">
-        <v>1.566773842243963</v>
+        <v>26.77764658716</v>
       </c>
       <c r="S2">
-        <v>0.06159483045400998</v>
+        <v>0.06214782206741698</v>
       </c>
       <c r="T2">
-        <v>0.06159483045400998</v>
+        <v>0.06214782206741697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H3">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I3">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J3">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.70307272758605</v>
+        <v>8.442966333333333</v>
       </c>
       <c r="N3">
-        <v>7.70307272758605</v>
+        <v>25.328899</v>
       </c>
       <c r="O3">
-        <v>0.7049593053931887</v>
+        <v>0.714181037564905</v>
       </c>
       <c r="P3">
-        <v>0.7049593053931887</v>
+        <v>0.714181037564905</v>
       </c>
       <c r="Q3">
-        <v>3.743591374771063</v>
+        <v>7.790170248050555</v>
       </c>
       <c r="R3">
-        <v>3.743591374771063</v>
+        <v>70.11153223245499</v>
       </c>
       <c r="S3">
-        <v>0.1471724059982188</v>
+        <v>0.1627207609852435</v>
       </c>
       <c r="T3">
-        <v>0.1471724059982188</v>
+        <v>0.1627207609852435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.84190132288126</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H4">
-        <v>1.84190132288126</v>
+        <v>2.768045</v>
       </c>
       <c r="I4">
-        <v>0.7912327635477712</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J4">
-        <v>0.7912327635477712</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.22390230296509</v>
+        <v>0.154303</v>
       </c>
       <c r="N4">
-        <v>3.22390230296509</v>
+        <v>0.462909</v>
       </c>
       <c r="O4">
-        <v>0.2950406946068111</v>
+        <v>0.01305231743069972</v>
       </c>
       <c r="P4">
-        <v>0.2950406946068111</v>
+        <v>0.01305231743069972</v>
       </c>
       <c r="Q4">
-        <v>5.93810991667134</v>
+        <v>0.1423725492116666</v>
       </c>
       <c r="R4">
-        <v>5.93810991667134</v>
+        <v>1.281352942905</v>
       </c>
       <c r="S4">
-        <v>0.2334458641528012</v>
+        <v>0.002973872048165935</v>
       </c>
       <c r="T4">
-        <v>0.2334458641528012</v>
+        <v>0.002973872048165934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.267885</v>
+      </c>
+      <c r="H5">
+        <v>0.803655</v>
+      </c>
+      <c r="I5">
+        <v>0.06615019923955523</v>
+      </c>
+      <c r="J5">
+        <v>0.06615019923955524</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.224616</v>
+      </c>
+      <c r="N5">
+        <v>9.673848</v>
+      </c>
+      <c r="O5">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="P5">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="Q5">
+        <v>0.8638262571599998</v>
+      </c>
+      <c r="R5">
+        <v>7.77443631444</v>
+      </c>
+      <c r="S5">
+        <v>0.01804356791294578</v>
+      </c>
+      <c r="T5">
+        <v>0.01804356791294578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.267885</v>
+      </c>
+      <c r="H6">
+        <v>0.803655</v>
+      </c>
+      <c r="I6">
+        <v>0.06615019923955523</v>
+      </c>
+      <c r="J6">
+        <v>0.06615019923955524</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.442966333333333</v>
+      </c>
+      <c r="N6">
+        <v>25.328899</v>
+      </c>
+      <c r="O6">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="P6">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="Q6">
+        <v>2.261744036205</v>
+      </c>
+      <c r="R6">
+        <v>20.355696325845</v>
+      </c>
+      <c r="S6">
+        <v>0.04724321792803075</v>
+      </c>
+      <c r="T6">
+        <v>0.04724321792803075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.84190132288126</v>
-      </c>
-      <c r="H5">
-        <v>1.84190132288126</v>
-      </c>
-      <c r="I5">
-        <v>0.7912327635477712</v>
-      </c>
-      <c r="J5">
-        <v>0.7912327635477712</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>7.70307272758605</v>
-      </c>
-      <c r="N5">
-        <v>7.70307272758605</v>
-      </c>
-      <c r="O5">
-        <v>0.7049593053931887</v>
-      </c>
-      <c r="P5">
-        <v>0.7049593053931887</v>
-      </c>
-      <c r="Q5">
-        <v>14.1882998471913</v>
-      </c>
-      <c r="R5">
-        <v>14.1882998471913</v>
-      </c>
-      <c r="S5">
-        <v>0.5577868993949699</v>
-      </c>
-      <c r="T5">
-        <v>0.5577868993949699</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.267885</v>
+      </c>
+      <c r="H7">
+        <v>0.803655</v>
+      </c>
+      <c r="I7">
+        <v>0.06615019923955523</v>
+      </c>
+      <c r="J7">
+        <v>0.06615019923955524</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.154303</v>
+      </c>
+      <c r="N7">
+        <v>0.462909</v>
+      </c>
+      <c r="O7">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="P7">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="Q7">
+        <v>0.041335459155</v>
+      </c>
+      <c r="R7">
+        <v>0.372019132395</v>
+      </c>
+      <c r="S7">
+        <v>0.000863413398578706</v>
+      </c>
+      <c r="T7">
+        <v>0.000863413398578706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H8">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J8">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.224616</v>
+      </c>
+      <c r="N8">
+        <v>9.673848</v>
+      </c>
+      <c r="O8">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="P8">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="Q8">
+        <v>8.985578436856001</v>
+      </c>
+      <c r="R8">
+        <v>80.87020593170401</v>
+      </c>
+      <c r="S8">
+        <v>0.1876903988720523</v>
+      </c>
+      <c r="T8">
+        <v>0.1876903988720523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H9">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J9">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.442966333333333</v>
+      </c>
+      <c r="N9">
+        <v>25.328899</v>
+      </c>
+      <c r="O9">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="P9">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="Q9">
+        <v>23.52681256555855</v>
+      </c>
+      <c r="R9">
+        <v>211.741313090027</v>
+      </c>
+      <c r="S9">
+        <v>0.4914271090779932</v>
+      </c>
+      <c r="T9">
+        <v>0.4914271090779932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H10">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J10">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.154303</v>
+      </c>
+      <c r="N10">
+        <v>0.462909</v>
+      </c>
+      <c r="O10">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="P10">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="Q10">
+        <v>0.4299742076396667</v>
+      </c>
+      <c r="R10">
+        <v>3.869767868757001</v>
+      </c>
+      <c r="S10">
+        <v>0.008981283854311425</v>
+      </c>
+      <c r="T10">
+        <v>0.008981283854311423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.21757</v>
+      </c>
+      <c r="I11">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J11">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.224616</v>
+      </c>
+      <c r="N11">
+        <v>9.673848</v>
+      </c>
+      <c r="O11">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="P11">
+        <v>0.2727666450043952</v>
+      </c>
+      <c r="Q11">
+        <v>0.23385990104</v>
+      </c>
+      <c r="R11">
+        <v>2.10473910936</v>
+      </c>
+      <c r="S11">
+        <v>0.004884856151980158</v>
+      </c>
+      <c r="T11">
+        <v>0.004884856151980157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.21757</v>
+      </c>
+      <c r="I12">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J12">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.442966333333333</v>
+      </c>
+      <c r="N12">
+        <v>25.328899</v>
+      </c>
+      <c r="O12">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="P12">
+        <v>0.714181037564905</v>
+      </c>
+      <c r="Q12">
+        <v>0.6123120617144445</v>
+      </c>
+      <c r="R12">
+        <v>5.510808555430001</v>
+      </c>
+      <c r="S12">
+        <v>0.01278994957363751</v>
+      </c>
+      <c r="T12">
+        <v>0.01278994957363751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.21757</v>
+      </c>
+      <c r="I13">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J13">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.154303</v>
+      </c>
+      <c r="N13">
+        <v>0.462909</v>
+      </c>
+      <c r="O13">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="P13">
+        <v>0.01305231743069972</v>
+      </c>
+      <c r="Q13">
+        <v>0.01119056790333333</v>
+      </c>
+      <c r="R13">
+        <v>0.10071511113</v>
+      </c>
+      <c r="S13">
+        <v>0.0002337481296436519</v>
+      </c>
+      <c r="T13">
+        <v>0.0002337481296436519</v>
       </c>
     </row>
   </sheetData>
